--- a/assets/db/emails.xlsx
+++ b/assets/db/emails.xlsx
@@ -1,62 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28417"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D9EE3A3-E4CF-426B-83CD-4D9FF761B05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>nikky.kuznetsov@gmail.com</t>
-  </si>
-  <si>
-    <t>smirnoffa675@gmail.com</t>
+    <t>erika.maza@mail.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -86,11 +78,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -103,49 +163,49 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="303030"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="145F82"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E87331"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="186C24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -178,26 +238,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -230,26 +273,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -308,6 +334,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -316,13 +349,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -387,27 +413,7 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -418,29 +424,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{8001EE3B-E46E-478C-ABE6-8631780A98DF}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{9E6A8E68-2157-4A3A-A950-483162A84195}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/db/emails.xlsx
+++ b/assets/db/emails.xlsx
@@ -1,54 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28417"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D9EE3A3-E4CF-426B-83CD-4D9FF761B05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>erika.maza@mail.ru</t>
+    <t>nikky.kuznetsov@gmail.com</t>
+  </si>
+  <si>
+    <t>smirnoffa675@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -78,79 +86,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -163,49 +103,49 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="303030"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="145F82"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E87331"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="186C24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -238,9 +178,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -273,9 +230,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -334,13 +308,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -349,6 +316,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -413,7 +387,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -424,23 +418,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{8001EE3B-E46E-478C-ABE6-8631780A98DF}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{9E6A8E68-2157-4A3A-A950-483162A84195}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
